--- a/TradeManager/test/test_data/Trade Request Example_missing_price.xlsx
+++ b/TradeManager/test/test_data/Trade Request Example_missing_price.xlsx
@@ -24,9 +24,6 @@
     <t>symbol</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>AGG</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>5268-5955</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
     <t>tsm1500</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>account_cash</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>model_weight</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,22 +487,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>0.15</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>0.1</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>0.05</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0.02</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>0.01</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>0.04</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>0.03</v>
@@ -591,30 +591,30 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>352</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
         <v>98.2</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3">
         <v>74.5</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>69.5</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>10000</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3">
         <v>5687.21</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <v>750</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>32.5</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="3">
         <v>67</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>99</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3">
         <v>9994.67</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>172.09039999999999</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>121.1987</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>63.023800000000001</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>126.48399999999999</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>434.28129999999999</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>360.44</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
